--- a/biology/Médecine/Hidesaburō_Hanafusa/Hidesaburō_Hanafusa.xlsx
+++ b/biology/Médecine/Hidesaburō_Hanafusa/Hidesaburō_Hanafusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hidesabur%C5%8D_Hanafusa</t>
+          <t>Hidesaburō_Hanafusa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hidesaburō Hanafusa (en japonais : 花房 秀三郎, Hanafusa Hidesaburō ; né le 1er décembre 1929 à Nishinomiya ; mort le 15 mars 2009 à Osaka) est un généticien et biologiste moléculaire japonais, anciennement professeur à l'université Rockefeller de New York .
 Il est l'un des découvreurs des oncogènes et l'un des pionniers de la recherche sur les rétrovirus. Ses recherches se sont concentrées sur les cancers liés aux virus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hidesabur%C5%8D_Hanafusa</t>
+          <t>Hidesaburō_Hanafusa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hanafusa a obtenu un doctorat à l'université d'Osaka en 1960 en biochimie. En 1961, Hanafusa entre au laboratoire de Harry Rubin à l'université de Californie à Berkeley. De 1964 à 1966, il est chercheur invité au Collège de France à Paris, avant de prendre la direction du laboratoire d'oncologie virale du Public Health Research Institute (en) de New York. En 1973, Hanafusa devient professeur d'oncologie moléculaire à l'université Rockefeller de New York. Après sa retraite en 1998, il retourne au Japon où il dirige l’Institut de biotechnologie d'Osaka jusqu’en 2008. Le 15 mars 2009, Hidesaburo Hanafusa décède d'un cancer du foie, une tumeur souvent causée par des virus.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hidesabur%C5%8D_Hanafusa</t>
+          <t>Hidesaburō_Hanafusa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distinctions (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1981 Prix Howard-Taylor-Ricketts
 1982 Prix Albert-Lasker pour la recherche médicale fondamentale
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hidesabur%C5%8D_Hanafusa</t>
+          <t>Hidesaburō_Hanafusa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Nécrologies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>David A. Foster et James E. Darnell Jr, « Obituary:  Hidesaburo Hanafusa (1929–2009) », Nature, vol. 458, no 7239,‎ avril 2009, p. 718–718 (DOI 10.1038/458718a, lire en ligne)
 Benjamin G. Neel, Frederick R. Cross et David Pellman, « Obituary: Hidesaburo Hanafusa (1929–2009) », Cell, no 137,‎ avril 2009.
